--- a/medicine/Enfance/Jean-François_Laliberté/Jean-François_Laliberté.xlsx
+++ b/medicine/Enfance/Jean-François_Laliberté/Jean-François_Laliberté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Lalibert%C3%A9</t>
+          <t>Jean-François_Laliberté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-François Laliberté est un auteur, scénariste et ingénieur québécois[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-François Laliberté est un auteur, scénariste et ingénieur québécois.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Lalibert%C3%A9</t>
+          <t>Jean-François_Laliberté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-François Laliberté étudie en études littéraires à l'Université du Québec à Montréal, puis poursuit à l'École de technologie supérieure (ÉTS) en Génie des opérations et de la logistique[1].
-En 2012, il remporte le Prix de la Rivière Ouelle de la nouvelle policière, décerné par la Société du roman policier de Saint-Pacôme[1]. En 2019, il remporte le prix Réal-Fillion pour son premier album de bande dessinée, U-Merlin – Les épreuves de l’écuyer[2].
-Il est le premier auteur à publier un manga québécois, dont il fait mention dans plusieurs balados[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-François Laliberté étudie en études littéraires à l'Université du Québec à Montréal, puis poursuit à l'École de technologie supérieure (ÉTS) en Génie des opérations et de la logistique.
+En 2012, il remporte le Prix de la Rivière Ouelle de la nouvelle policière, décerné par la Société du roman policier de Saint-Pacôme. En 2019, il remporte le prix Réal-Fillion pour son premier album de bande dessinée, U-Merlin – Les épreuves de l’écuyer.
+Il est le premier auteur à publier un manga québécois, dont il fait mention dans plusieurs balados.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Lalibert%C3%A9</t>
+          <t>Jean-François_Laliberté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>U-Merlin 1 : Les épreuves de l'écuyer (illustré par Sacha Lefebvre), Montréal, Éditions Michel Quintin, 2018, 104 p.  (ISBN 978-2-89762-350-0)
 U-Merlin 2 : Pour le roi! (illustré par Sacha Lefebvre), Montréal, Éditions Michel Quintin, 2019, 104 p.  (ISBN 978-2-89762-427-9)
@@ -552,10 +568,7 @@
 U-Merlin 4 : L'arène de Salamandria (illustré par Sacha Lefebvre), Montréal, Éditions Michel Quintin, 2022, 104 p.  (ISBN 978-2-89762-608-2)
 Les Élus Eljun 1 (illustré par Sacha Lefebvre), Montréal, Éditions Michel Quintin, 2023, 192 p.  (ISBN 978-2-89762-758-4)
 Les Élus Eljun 2 (illustré par Sacha Lefebvre), Montréal, Éditions Michel Quintin, 2023, 192 p.  (ISBN 9782897627805)
-Sire Dodoom 1 : Le code du chevalier Roderick (illustré par Mathieu Benoit), Éditions Les Malins, 2023, 126 p.  (ISBN 978-2-89810-732-0)
-Collectifs
-« Le navire maudit » (illustrations de Sacha Lefebvre), nouvelle en bande dessinée publiée dans le collectif Front 8, Montréal, Front Froid, 2015, 16 p.
-« Le porcher du mal» (illustrations de Olivier Carpentier), nouvelle en bande dessinée publiée dans le recueil Rencontres, Montréal, Presses du FBDM-MCAF, 2022, 7 p.</t>
+Sire Dodoom 1 : Le code du chevalier Roderick (illustré par Mathieu Benoit), Éditions Les Malins, 2023, 126 p.  (ISBN 978-2-89810-732-0)</t>
         </is>
       </c>
     </row>
@@ -565,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Lalibert%C3%A9</t>
+          <t>Jean-François_Laliberté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,13 +593,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« Le navire maudit » (illustrations de Sacha Lefebvre), nouvelle en bande dessinée publiée dans le collectif Front 8, Montréal, Front Froid, 2015, 16 p.
+« Le porcher du mal» (illustrations de Olivier Carpentier), nouvelle en bande dessinée publiée dans le recueil Rencontres, Montréal, Presses du FBDM-MCAF, 2022, 7 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-François_Laliberté</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Lalibert%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2012 : Prix de la Rivière Ouelle de la nouvelle policière pour « Le mystère du café au nom original »[6]
-2019 : Prix Réal-Fillion pour U-Merlin - Les épreuves de l'écuyer[2]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2012 : Prix de la Rivière Ouelle de la nouvelle policière pour « Le mystère du café au nom original »
+2019 : Prix Réal-Fillion pour U-Merlin - Les épreuves de l'écuyer</t>
         </is>
       </c>
     </row>
